--- a/[3] Test Input/RESULTS_TT_MERGED_DATE_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_DATE_ASR_control.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>111.5</v>
+        <v>55.5</v>
       </c>
       <c r="H2" t="n">
-        <v>103.455</v>
+        <v>50.098360936617</v>
       </c>
       <c r="I2" t="n">
-        <v>103.455</v>
+        <v>49.80160315265644</v>
       </c>
       <c r="J2" t="n">
-        <v>46.13</v>
+        <v>18.195</v>
       </c>
       <c r="K2" t="n">
-        <v>168.38</v>
+        <v>48.77</v>
       </c>
       <c r="L2" t="n">
-        <v>11582.935</v>
+        <v>2524.925</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5</v>
+        <v>44.5</v>
       </c>
       <c r="H3" t="n">
-        <v>109.83</v>
+        <v>44.37980422864649</v>
       </c>
       <c r="I3" t="n">
-        <v>102.115</v>
+        <v>40.14190385548732</v>
       </c>
       <c r="J3" t="n">
-        <v>44.435</v>
+        <v>14.825</v>
       </c>
       <c r="K3" t="n">
-        <v>139.465</v>
+        <v>30.755</v>
       </c>
       <c r="L3" t="n">
-        <v>12934.615</v>
+        <v>1832.845</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>109</v>
+        <v>46.5</v>
       </c>
       <c r="H4" t="n">
-        <v>109.49</v>
+        <v>46.28653425546297</v>
       </c>
       <c r="I4" t="n">
-        <v>94.40000000000001</v>
+        <v>43.73998364553493</v>
       </c>
       <c r="J4" t="n">
-        <v>43.465</v>
+        <v>15.655</v>
       </c>
       <c r="K4" t="n">
-        <v>189.6</v>
+        <v>25.325</v>
       </c>
       <c r="L4" t="n">
-        <v>11780.58</v>
+        <v>1905.95</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="H5" t="n">
-        <v>144.54</v>
+        <v>92.76675635975053</v>
       </c>
       <c r="I5" t="n">
-        <v>135.82</v>
+        <v>84.99343789125676</v>
       </c>
       <c r="J5" t="n">
-        <v>42.67</v>
+        <v>28.95</v>
       </c>
       <c r="K5" t="n">
-        <v>50.41</v>
+        <v>47.05</v>
       </c>
       <c r="L5" t="n">
-        <v>9416.059999999999</v>
+        <v>3975.87</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>102.62</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="I6" t="n">
-        <v>90.21000000000001</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="J6" t="n">
-        <v>42.11</v>
+        <v>12.88</v>
       </c>
       <c r="K6" t="n">
-        <v>184.2</v>
+        <v>26.48</v>
       </c>
       <c r="L6" t="n">
-        <v>11440.56</v>
+        <v>1371.13</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_TT_MERGED_DATE_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_DATE_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>55.5</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>50.098360936617</v>
       </c>
       <c r="G2" t="n">
-        <v>55.5</v>
+        <v>49.80160315265644</v>
       </c>
       <c r="H2" t="n">
-        <v>50.098360936617</v>
+        <v>18.195</v>
       </c>
       <c r="I2" t="n">
-        <v>49.80160315265644</v>
+        <v>48.77</v>
       </c>
       <c r="J2" t="n">
-        <v>18.195</v>
-      </c>
-      <c r="K2" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="L2" t="n">
         <v>2524.925</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>44.5</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>44.37980422864649</v>
       </c>
       <c r="G3" t="n">
-        <v>44.5</v>
+        <v>40.14190385548732</v>
       </c>
       <c r="H3" t="n">
-        <v>44.37980422864649</v>
+        <v>14.825</v>
       </c>
       <c r="I3" t="n">
-        <v>40.14190385548732</v>
+        <v>30.755</v>
       </c>
       <c r="J3" t="n">
-        <v>14.825</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30.755</v>
-      </c>
-      <c r="L3" t="n">
         <v>1832.845</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>46.5</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>46.28653425546297</v>
       </c>
       <c r="G4" t="n">
-        <v>46.5</v>
+        <v>43.73998364553493</v>
       </c>
       <c r="H4" t="n">
-        <v>46.28653425546297</v>
+        <v>15.655</v>
       </c>
       <c r="I4" t="n">
-        <v>43.73998364553493</v>
+        <v>25.325</v>
       </c>
       <c r="J4" t="n">
-        <v>15.655</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25.325</v>
-      </c>
-      <c r="L4" t="n">
         <v>1905.95</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>92.76675635975053</v>
       </c>
       <c r="G5" t="n">
-        <v>97</v>
+        <v>84.99343789125676</v>
       </c>
       <c r="H5" t="n">
-        <v>92.76675635975053</v>
+        <v>28.95</v>
       </c>
       <c r="I5" t="n">
-        <v>84.99343789125676</v>
+        <v>47.05</v>
       </c>
       <c r="J5" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="L5" t="n">
         <v>3975.87</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="H6" t="n">
-        <v>41.12019646503102</v>
+        <v>12.88</v>
       </c>
       <c r="I6" t="n">
-        <v>41.12019646503102</v>
+        <v>26.48</v>
       </c>
       <c r="J6" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="L6" t="n">
         <v>1371.13</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_TT_MERGED_DATE_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_DATE_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
         <v>18.195</v>
       </c>
       <c r="I2" t="n">
-        <v>48.77</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2524.925</v>
+        <v>1638.345</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>14.825</v>
       </c>
       <c r="I3" t="n">
-        <v>30.755</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1832.845</v>
+        <v>1157.43</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>15.655</v>
       </c>
       <c r="I4" t="n">
-        <v>25.325</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1905.95</v>
+        <v>1236.08</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>28.95</v>
       </c>
       <c r="I5" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3975.87</v>
+        <v>2761.37</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +652,7 @@
         <v>12.88</v>
       </c>
       <c r="I6" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1371.13</v>
+        <v>887.21</v>
       </c>
     </row>
   </sheetData>
